--- a/static/sales_data.xlsx
+++ b/static/sales_data.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12-17" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>时间</t>
   </si>
@@ -26,6 +27,15 @@
   </si>
   <si>
     <t>2018-12-05 23:04:26</t>
+  </si>
+  <si>
+    <t>2018-12-17 20:19:12</t>
+  </si>
+  <si>
+    <t>4957人已买</t>
+  </si>
+  <si>
+    <t>6518人已买</t>
   </si>
 </sst>
 </file>
@@ -412,4 +422,47 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>